--- a/pythonProject2/data/万里牛测试数据分类后.xlsx
+++ b/pythonProject2/data/万里牛测试数据分类后.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR90"/>
+  <dimension ref="A1:DR91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26523,11 +26523,7 @@
       </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="n">
         <v>780617116557</v>
@@ -26713,6 +26709,286 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>[淘宝]共享品质生活女装馆</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2109133344019200690|2109941581419200690</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>XD240419000696</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>349</v>
+      </c>
+      <c r="I91" t="n">
+        <v>349</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>济南正品仓</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>原单号7790051918236（2）补发，LULUAlignMini-FlarePant女士瑜伽裤【LW5GI6S-BGIB】,8码，王卓尔330683198811060426，王卓尔，18868818050，浙江省 杭州市 西湖区 三墩镇五常港路469号紫金西苑18幢2单元202</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>打单配货</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[线下订单]</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>【1】：AAA商品(1)；</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>待发货</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>[补发]2109133344019200690</t>
+        </is>
+      </c>
+      <c r="AB91" t="n">
+        <v>425</v>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>AAA商品</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="n">
+        <v>780617116557</v>
+      </c>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="n">
+        <v>6256512621838853</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>349</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="n">
+        <v>349</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>349</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AU91" t="inlineStr"/>
+      <c r="AV91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>已锁定</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+      <c r="AZ91" t="inlineStr"/>
+      <c r="BA91" t="inlineStr"/>
+      <c r="BB91" t="inlineStr"/>
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="inlineStr"/>
+      <c r="BE91" t="inlineStr"/>
+      <c r="BF91" t="inlineStr"/>
+      <c r="BG91" t="inlineStr"/>
+      <c r="BH91" t="inlineStr"/>
+      <c r="BI91" t="inlineStr"/>
+      <c r="BJ91" t="inlineStr"/>
+      <c r="BK91" t="inlineStr">
+        <is>
+          <t>新干线</t>
+        </is>
+      </c>
+      <c r="BL91" t="inlineStr"/>
+      <c r="BM91" t="inlineStr"/>
+      <c r="BN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>未称重</t>
+        </is>
+      </c>
+      <c r="BS91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV91" t="inlineStr">
+        <is>
+          <t>乐**;AAHEW229AA2IH7T0WhNIYcu4</t>
+        </is>
+      </c>
+      <c r="BW91" t="inlineStr"/>
+      <c r="BX91" t="inlineStr"/>
+      <c r="BY91" t="inlineStr"/>
+      <c r="BZ91" t="inlineStr"/>
+      <c r="CA91" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="CB91" t="inlineStr">
+        <is>
+          <t>杭州市</t>
+        </is>
+      </c>
+      <c r="CC91" t="inlineStr">
+        <is>
+          <t>西湖区</t>
+        </is>
+      </c>
+      <c r="CD91" t="inlineStr"/>
+      <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="inlineStr">
+        <is>
+          <t>2024/04/19 13:01:21</t>
+        </is>
+      </c>
+      <c r="CG91" t="inlineStr">
+        <is>
+          <t>2024/04/19 13:01:21</t>
+        </is>
+      </c>
+      <c r="CH91" t="inlineStr"/>
+      <c r="CI91" t="inlineStr"/>
+      <c r="CJ91" t="inlineStr"/>
+      <c r="CK91" t="inlineStr">
+        <is>
+          <t>2024/04/19 13:01:45</t>
+        </is>
+      </c>
+      <c r="CL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO91" t="inlineStr">
+        <is>
+          <t>韩群</t>
+        </is>
+      </c>
+      <c r="CP91" t="inlineStr"/>
+      <c r="CQ91" t="inlineStr"/>
+      <c r="CR91" t="inlineStr"/>
+      <c r="CS91" t="inlineStr"/>
+      <c r="CT91" t="inlineStr"/>
+      <c r="CU91" t="inlineStr"/>
+      <c r="CV91" t="inlineStr"/>
+      <c r="CW91" t="inlineStr"/>
+      <c r="CX91" t="inlineStr"/>
+      <c r="CY91" t="inlineStr"/>
+      <c r="CZ91" t="inlineStr"/>
+      <c r="DA91" t="inlineStr"/>
+      <c r="DB91" t="inlineStr"/>
+      <c r="DC91" t="inlineStr"/>
+      <c r="DD91" t="inlineStr"/>
+      <c r="DE91" t="inlineStr"/>
+      <c r="DF91" t="inlineStr"/>
+      <c r="DG91" t="inlineStr"/>
+      <c r="DH91" t="inlineStr"/>
+      <c r="DI91" t="inlineStr"/>
+      <c r="DJ91" t="inlineStr"/>
+      <c r="DK91" t="inlineStr"/>
+      <c r="DL91" t="inlineStr"/>
+      <c r="DM91" t="inlineStr"/>
+      <c r="DN91" t="inlineStr"/>
+      <c r="DO91" t="inlineStr"/>
+      <c r="DP91" t="inlineStr"/>
+      <c r="DQ91" t="inlineStr">
+        <is>
+          <t>淘宝</t>
+        </is>
+      </c>
+      <c r="DR91" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
